--- a/biology/Botanique/Pessac-léognan/Pessac-léognan.xlsx
+++ b/biology/Botanique/Pessac-léognan/Pessac-léognan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pessac-l%C3%A9ognan</t>
+          <t>Pessac-léognan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le pessac-léognan[1] est un vin français d'appellation d'origine contrôlée produit autour de Pessac et de Léognan dans le vignoble des Graves, une des subdivisions du vignoble de Bordeaux.
+Le pessac-léognan est un vin français d'appellation d'origine contrôlée produit autour de Pessac et de Léognan dans le vignoble des Graves, une des subdivisions du vignoble de Bordeaux.
 Son aire de production se trouve immédiatement au sud de Bordeaux.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pessac-l%C3%A9ognan</t>
+          <t>Pessac-léognan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'appellation pessac-léognan compte seize crus classés de graves : sept en vin rouge, trois en vin blanc et six crus classés en rouge et blanc[5]. Le château Haut-Brion, seul premier cru classé de 1855 non issu du Médoc, est aujourd’hui le chef de file des 68 châteaux et domaines.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'appellation pessac-léognan compte seize crus classés de graves : sept en vin rouge, trois en vin blanc et six crus classés en rouge et blanc. Le château Haut-Brion, seul premier cru classé de 1855 non issu du Médoc, est aujourd’hui le chef de file des 68 châteaux et domaines.
 Du fait de sa situation autour de la ville de Bordeaux, le vignoble de l’appellation fut très diminué au cours des cent dernières années par une urbanisation qui l’oblige à une lutte de tous les jours pour préserver ses terroirs de haute valeur viticole.
 Grâce au dynamisme de ses producteurs, l’AOC pessac-léognan a, depuis quinze ans et à la suite de sa création en 1987, étendu sa surface cultivée de 500 hectares en 1975 à 1 600 hectares aujourd’hui.
 L'appellation s'étend sur dix communes : Cadaujac, Canéjan, Gradignan, Léognan, Martillac, Mérignac, Pessac, Saint-Médard-d'Eyrans, Talence et Villenave-d'Ornon.
@@ -523,7 +537,7 @@
 Sols : graves pyrénéennes.
 Cépages :
 vin pessac-léognan rouge : un assemblage de cabernet sauvignon, de merlot et de cabernet franc ; sont aussi autorisés, par le cahier des charges de l'appellation, le carménère, le côt (malbec) et le petit verdot ;
-vin pessac-léognan blanc : sauvignon parfois associé au sémillon ; sont aussi autorisés la muscadelle et le sauvignon gris[6].</t>
+vin pessac-léognan blanc : sauvignon parfois associé au sémillon ; sont aussi autorisés la muscadelle et le sauvignon gris.</t>
         </is>
       </c>
     </row>
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pessac-l%C3%A9ognan</t>
+          <t>Pessac-léognan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,10 +565,48 @@
           <t>Vins</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sévèrement sélectionnée, sa production annuelle s’élève à 65 000 hectolitres, soit près de 9 millions de bouteilles (80 % de rouges et 20 % de blancs secs), exportés à 75 %.
-Liste des domaines (non exhaustif)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pessac-léognan</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pessac-l%C3%A9ognan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Vins</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des domaines (non exhaustif)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Château Baret
 Château l'Angelot de Seguin (*)
 Château Bahans Haut-Brion (*)
